--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4781,6 +4781,98 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45205.58333333334</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>05/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>06/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>05/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>06/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>05/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>06/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/lamphun-warrior-ratchaburi/OS0HQLeq/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4873,6 +4873,98 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45205.66666666666</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/uthai-thani-port-mti-fc/O4MYYql3/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Trat FC</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.83</v>
+        <v>1.21</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.66</v>
+        <v>6.02</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.87</v>
+        <v>6.56</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.14</v>
+        <v>10.71</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.1</v>
+        <v>12.97</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Trat FC</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.83</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>6.02</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>6.56</v>
+        <v>3.87</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>10.71</v>
+        <v>4.14</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>12.97</v>
+        <v>4.1</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
         </is>
       </c>
     </row>
@@ -4962,6 +4962,282 @@
       <c r="V49" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/thailand/thai-league-1/uthai-thani-port-mti-fc/O4MYYql3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-pathum-united/hpAoWsYL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Police Tero</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/police-tero-prachuap/6mEkV1mS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Trat FC</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/trat-fc-nakhon-pathom/2JaLPuBk/</t>
         </is>
       </c>
     </row>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5241,6 +5241,282 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45207.52083333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:22</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:22</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:22</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/khonkaen-united-muang-thong-utd/ALKtXNIF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-chonburi/WULxY339/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:46</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:46</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:46</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/bangkok-utd-chiangrai-utd/KffQOaQe/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Trat FC</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>1.83</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.02</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>6.56</v>
+        <v>3.87</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>10.71</v>
+        <v>4.14</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>12.97</v>
+        <v>4.1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Trat FC</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.83</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.66</v>
+        <v>6.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.87</v>
+        <v>6.56</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.14</v>
+        <v>10.71</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.1</v>
+        <v>12.97</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,190 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/thailand/thai-league-1/bangkok-utd-chiangrai-utd/KffQOaQe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>18/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>20/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>18/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>20/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>18/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>20/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/chiangrai-utd-buriram-united-f-c/AZaFoNX8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45219.58333333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Trat FC</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>20/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>20/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>20/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/pathum-united-trat-fc/pdUbwauk/</t>
         </is>
       </c>
     </row>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Trat FC</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.83</v>
+        <v>1.21</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.66</v>
+        <v>6.02</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.87</v>
+        <v>6.56</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.14</v>
+        <v>10.71</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.1</v>
+        <v>12.97</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Trat FC</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.83</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>6.02</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>6.56</v>
+        <v>3.87</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>10.71</v>
+        <v>4.14</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>12.97</v>
+        <v>4.1</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,190 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/thailand/thai-league-1/pathum-united-trat-fc/pdUbwauk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/nakhon-pathom-khonkaen-united/WllOq12L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>18/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>18/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>18/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/ratchaburi-sukhothai/hbkKpsmF/</t>
         </is>
       </c>
     </row>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Trat FC</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>1.83</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.02</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>6.56</v>
+        <v>3.87</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>10.71</v>
+        <v>4.14</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>12.97</v>
+        <v>4.1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Trat FC</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.83</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.66</v>
+        <v>6.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.87</v>
+        <v>6.56</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.14</v>
+        <v>10.71</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.1</v>
+        <v>12.97</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,282 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/thailand/thai-league-1/ratchaburi-sukhothai/hbkKpsmF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45221.52083333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/prachuap-uthai-thani/2XvfvuQr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Police Tero</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>18/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>18/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>18/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/police-tero-muang-thong-utd/ClsCn3I2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>18/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>18/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>18/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/port-mti-fc-lamphun-warrior/0OhSrLHR/</t>
         </is>
       </c>
     </row>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6161,6 +6161,742 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45226.58333333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Police Tero</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/police-tero-khonkaen-united/hMX6ywA1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-port-mti-fc/bJhSvCGg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:53</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/chiangrai-utd-chonburi/Gf3Nuh1m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:25</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/lamphun-warrior-nakhon-pathom/W4xnat28/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/uthai-thani-muang-thong-utd/baY2xJfe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45228.47916666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Trat FC</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:43</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:07</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:43</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:27</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:43</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:07</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/trat-fc-prachuap/Aeyjb0HE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>27/10/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>27/10/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>27/10/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-pathum-united/2iaJtYos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>27/10/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>27/10/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>27/10/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/bangkok-utd-ratchaburi/WCWAzcP7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6897,6 +6897,190 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/port-mti-fc-bangkok-utd/pzevxA0C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/khonkaen-united-uthai-thani/xAiWwWVa/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7081,6 +7081,190 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45235.47916666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:25</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:22</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:25</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/nakhon-pathom-sukhothai/CMI1gBVn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>31/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>31/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>31/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/ratchaburi-chonburi/6qdzwjo6/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7265,6 +7265,190 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45236.52083333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Trat FC</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:38</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:21</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:38</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:38</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:21</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/trat-fc-muang-thong-utd/vZmmzlVO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45236.58333333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Police Tero</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>30/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>30/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>30/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/police-tero-lamphun-warrior/foOdfiGt/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7449,6 +7449,98 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45240.5</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-chonburi/UsyQ5oKG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7541,6 +7541,190 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45254.5</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>17/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>24/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>17/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>24/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>17/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>24/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-ratchaburi/jDH5hVpg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45254.54166666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>24/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>24/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>24/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/bangkok-utd-nakhon-pathom/Islz8Apt/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7725,6 +7725,466 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:49</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:53</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:53</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/chonburi-pathum-united/Kh9MlmpI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-prachuap/t2AIkTUB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/lamphun-warrior-muang-thong-utd/bwLDj9F5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45256.47916666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Police Tero</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:02</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:02</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:02</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/uthai-thani-police-tero/hKMTnREU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/chiangrai-utd-port-mti-fc/pzH9ik0a/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8185,6 +8185,98 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45257.52083333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Trat FC</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/trat-fc-khonkaen-united/ETNPm7aO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8277,6 +8277,190 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45261.54166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/ratchaburi-chiangrai-utd/fmqa26EH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45261.54166666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/uthai-thani-sukhothai/4bjn58Ub/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8461,6 +8461,282 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45262.5</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/port-mti-fc-pathum-united/0Qqe3naB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Police Tero</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Trat FC</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/police-tero-trat-fc/lnx80pqU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45262.58333333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/nakhon-pathom-chonburi/6Nn31QTN/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Trat FC</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.83</v>
+        <v>1.21</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.66</v>
+        <v>6.02</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.87</v>
+        <v>6.56</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.14</v>
+        <v>10.71</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.1</v>
+        <v>12.97</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Trat FC</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.83</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>6.02</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>6.56</v>
+        <v>3.87</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>10.71</v>
+        <v>4.14</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>12.97</v>
+        <v>4.1</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,1754 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/thailand/thai-league-1/nakhon-pathom-chonburi/6Nn31QTN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45263.47916666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:22</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:22</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>27/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:22</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/khonkaen-united-lamphun-warrior/Wphv7Uan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/muang-thong-utd-buriram-united-f-c/MZpi4Sq5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/prachuap-bangkok-utd/Q7ir6lFh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/bangkok-utd-khonkaen-united/jeOZe4io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>4</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-nakhon-pathom/ns8xGPrH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45269.58333333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/pathum-united-ratchaburi/ET9UHoE4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45270.47916666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Trat FC</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:27</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:27</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:27</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/trat-fc-uthai-thani/0Q5QIRbb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45270.5</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:51</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:37</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/chonburi-port-mti-fc/8j9YG5TA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/lamphun-warrior-prachuap/ShPZEqbN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45271.58333333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Police Tero</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>11/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>11/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>11/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/chiangrai-utd-police-tero/I1GLJ7qh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45272.52083333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>05/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>12/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>05/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>12/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>05/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>12/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-muang-thong-utd/vBHHKmUo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45275.54166666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>11/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>15/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>11/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>15/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>11/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>15/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/prachuap-chonburi/lQrbFD93/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45276.5</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>16/12/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>16/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>16/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/khonkaen-united-pathum-united/OOA59NLp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45276.52083333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>12/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>12/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>12/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/muang-thong-utd-ratchaburi/xSE98syi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45276.54166666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/uthai-thani-lamphun-warrior/KjvfGgfc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>11/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>11/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>11/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/nakhon-pathom-chiangrai-utd/6qOwE3DT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45277.47916666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Police Tero</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>12/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:28</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>12/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:22</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>12/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:28</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/police-tero-sukhothai/AuX6DivG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45277.5</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>4</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/port-mti-fc-buriram-united-f-c/SGs2EXO9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45277.54166666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Trat FC</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/trat-fc-bangkok-utd/t0ujHZvi/</t>
         </is>
       </c>
     </row>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Trat FC</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>1.83</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.02</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>6.56</v>
+        <v>3.87</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>10.71</v>
+        <v>4.14</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>15/08/2023 16:42</t>
+          <t>18/08/2023 23:26</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>12.97</v>
+        <v>4.1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:50</t>
+          <t>20/08/2023 12:51</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Trat FC</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.83</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.66</v>
+        <v>6.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.87</v>
+        <v>6.56</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.14</v>
+        <v>10.71</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>18/08/2023 23:26</t>
+          <t>15/08/2023 16:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.1</v>
+        <v>12.97</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 12:51</t>
+          <t>20/08/2023 12:50</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-trat-fc/xGYJjFEC/</t>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-lamphun-warrior/nLdbew0s/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,1018 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/thailand/thai-league-1/trat-fc-bangkok-utd/t0ujHZvi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45283.5</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/chonburi-muang-thong-utd/zu6jhs87/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45283.54166666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/sukhothai-khonkaen-united/dl7ngNh1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45283.58333333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>4</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/buriram-united-f-c-uthai-thani/pAmsF4FK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45284.47916666666</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>5</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Trat FC</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:26</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:27</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:26</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/lamphun-warrior-trat-fc/0MDweqOl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45284.5</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:48</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:45</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:52</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/chiangrai-utd-prachuap/2obxGp0E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45284.52083333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Police Tero</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:04</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:04</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:04</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/bangkok-utd-police-tero/6aEZeP8r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45284.54166666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/pathum-united-nakhon-pathom/vDCsf3we/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45285.54166666666</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>18/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>25/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>18/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>25/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>18/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>25/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/port-mti-fc-ratchaburi/lrfYGQp8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45288.5</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>28/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>28/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>28/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/prachuap-buriram-united-f-c/SbpqyUFI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45288.54166666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>28/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>28/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>28/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/pathum-united-chiangrai-utd/hxxVbX7P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45288.54166666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>28/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>28/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>28/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/chonburi-bangkok-utd/bogUNJu2/</t>
         </is>
       </c>
     </row>

--- a/2023/thailand_thai-league-1_2023-2024.xlsx
+++ b/2023/thailand_thai-league-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11497,6 +11497,98 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>thai-league-1</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45297.54166666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Buriram</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>27/09/2024 21:42</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>06/01/2024 12:59</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>27/09/2024 21:42</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>06/01/2024 12:59</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>27/09/2024 21:42</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>06/01/2024 12:59</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/thailand/thai-league-1/bangkok-utd-buriram-united-f-c/Gba7IO3M/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
